--- a/notebooks/df_npv.xlsx
+++ b/notebooks/df_npv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,51 +487,6 @@
       <c r="Q1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -583,51 +538,6 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -636,97 +546,52 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="C3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="D3" t="n">
-        <v>566827.9574732406</v>
+        <v>549499.2842678751</v>
       </c>
       <c r="E3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="F3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="G3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="H3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="I3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="J3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="K3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="L3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="M3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="N3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="O3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="P3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
       <c r="Q3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="R3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="S3" t="n">
-        <v>566800.4562270368</v>
-      </c>
-      <c r="T3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="U3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="V3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="W3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="X3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>566814.2060161809</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>566814.2060161809</v>
+        <v>549485.9532108722</v>
       </c>
     </row>
     <row r="4">
@@ -734,97 +599,52 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="C4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="D4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="E4" t="n">
-        <v>1001825.839822823</v>
+        <v>933152.8456510046</v>
       </c>
       <c r="F4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="G4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="H4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="I4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="J4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="K4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="L4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="M4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="N4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="O4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="P4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
       <c r="Q4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1001728.927543634</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1001777.380167481</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1001777.380167481</v>
+        <v>933107.7078002081</v>
       </c>
     </row>
     <row r="5">
@@ -832,97 +652,52 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="C5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="D5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="E5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="F5" t="n">
-        <v>691547.3378712923</v>
+        <v>638393.2549373904</v>
       </c>
       <c r="G5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="H5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="I5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="J5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="K5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="L5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="M5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="N5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="O5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="P5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
       <c r="Q5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="R5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="S5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="T5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="U5" t="n">
-        <v>691447.0144499902</v>
-      </c>
-      <c r="V5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="W5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="X5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>691497.1719154129</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>691497.1719154129</v>
+        <v>638346.9448641576</v>
       </c>
     </row>
     <row r="6">
@@ -930,97 +705,52 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="C6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="D6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="E6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="F6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="G6" t="n">
-        <v>822550.9016564471</v>
+        <v>1030508.938885905</v>
       </c>
       <c r="H6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="I6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="J6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="K6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="L6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="M6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="N6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="O6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="P6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
       <c r="Q6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="R6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="S6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="T6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="U6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="V6" t="n">
-        <v>822391.6357176512</v>
-      </c>
-      <c r="W6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="X6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>822471.2609768591</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>822471.2609768591</v>
+        <v>1030409.16338016</v>
       </c>
     </row>
     <row r="7">
@@ -1028,97 +758,52 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="C7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="D7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="E7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="F7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="G7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="H7" t="n">
-        <v>657563.7369978225</v>
+        <v>529266.8789800488</v>
       </c>
       <c r="I7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="J7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="K7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="L7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="M7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="N7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="O7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="P7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
       <c r="Q7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="R7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="S7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="T7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="U7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="V7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="W7" t="n">
-        <v>657404.3624949808</v>
-      </c>
-      <c r="X7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>657484.0410540962</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>657484.0410540962</v>
+        <v>529202.7324630951</v>
       </c>
     </row>
     <row r="8">
@@ -1126,97 +811,52 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="C8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="D8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="E8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="F8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="G8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="H8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="I8" t="n">
-        <v>405653.5726810429</v>
+        <v>566895.8918862557</v>
       </c>
       <c r="J8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="K8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="L8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="M8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="N8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="O8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="P8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
       <c r="Q8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="R8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="S8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="T8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="U8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="V8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="W8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="X8" t="n">
-        <v>405535.4267583569</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>405594.4925499471</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>405594.4925499471</v>
+        <v>566813.3281277537</v>
       </c>
     </row>
     <row r="9">
@@ -1224,97 +864,52 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="C9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="D9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="E9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="F9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="G9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="H9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="I9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="J9" t="n">
-        <v>883356.8148215725</v>
+        <v>1260024.15953557</v>
       </c>
       <c r="K9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="L9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="M9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="N9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="O9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="P9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
       <c r="Q9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="R9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="S9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="T9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="U9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="V9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="W9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="X9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>883013.0522775796</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>883184.908461536</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>883184.908461536</v>
+        <v>1259778.951525409</v>
       </c>
     </row>
     <row r="10">
@@ -1322,97 +917,52 @@
         <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="C10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="D10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="E10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="F10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="G10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="H10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="I10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="J10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="K10" t="n">
-        <v>2124605.737956889</v>
+        <v>1855749.503823447</v>
       </c>
       <c r="L10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="M10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="N10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="O10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="P10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
       <c r="Q10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="X10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2123363.501801125</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>2123984.498789719</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>2123984.498789719</v>
+        <v>1855206.878782182</v>
       </c>
     </row>
     <row r="11">
@@ -1420,97 +970,52 @@
         <v>48</v>
       </c>
       <c r="B11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="C11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="D11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="E11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="F11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="G11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="H11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="I11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="J11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="K11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="L11" t="n">
-        <v>1979428.117223506</v>
+        <v>1870791.072800637</v>
       </c>
       <c r="M11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="N11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="O11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="P11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
       <c r="Q11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1977885.104145485</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1978656.422671086</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1978656.422671086</v>
+        <v>1870061.73119584</v>
       </c>
     </row>
     <row r="12">
@@ -1518,97 +1023,52 @@
         <v>60</v>
       </c>
       <c r="B12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="C12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="D12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="E12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="F12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="G12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="H12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="I12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="J12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="K12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="L12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="M12" t="n">
-        <v>1847726.877476545</v>
+        <v>1700097.787834269</v>
       </c>
       <c r="N12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="O12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="P12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
       <c r="Q12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1845927.377801426</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1846826.864631213</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1846826.864631213</v>
+        <v>1699269.683926693</v>
       </c>
     </row>
     <row r="13">
@@ -1616,97 +1076,52 @@
         <v>84</v>
       </c>
       <c r="B13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="C13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="D13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="E13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="F13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="G13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="H13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="I13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="J13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="K13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="L13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="M13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="N13" t="n">
-        <v>2115810.847993978</v>
+        <v>2372110.223673618</v>
       </c>
       <c r="O13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="P13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
       <c r="Q13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="X13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>2112928.915768063</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>2114369.320718613</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>2114369.320718613</v>
+        <v>2370494.076563474</v>
       </c>
     </row>
     <row r="14">
@@ -1714,97 +1129,52 @@
         <v>120</v>
       </c>
       <c r="B14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="C14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="D14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="E14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="F14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="G14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="H14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="I14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="J14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="K14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="L14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="M14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="N14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="O14" t="n">
-        <v>3179783.655481409</v>
+        <v>2713442.894784588</v>
       </c>
       <c r="P14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
       <c r="Q14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="U14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>3173601.340063546</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3176690.843412798</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>3176690.843412798</v>
+        <v>2710803.668396337</v>
       </c>
     </row>
     <row r="15">
@@ -1812,97 +1182,52 @@
         <v>180</v>
       </c>
       <c r="B15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="C15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="D15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="E15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="F15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="G15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="H15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="I15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="J15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="K15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="L15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="M15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="N15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="O15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
       <c r="P15" t="n">
-        <v>1676170.363918496</v>
+        <v>1603702.873322788</v>
       </c>
       <c r="Q15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1673724.243137959</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1671281.929718842</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1673724.243137959</v>
+        <v>1601362.508042095</v>
       </c>
     </row>
     <row r="16">
@@ -1910,97 +1235,52 @@
         <v>360</v>
       </c>
       <c r="B16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="C16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="D16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="E16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="F16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="G16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="H16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="I16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="J16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="K16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="L16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="M16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="N16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="O16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="P16" t="n">
-        <v>851530.0286030577</v>
+        <v>800973.874876468</v>
       </c>
       <c r="Q16" t="n">
-        <v>854034.0845426127</v>
-      </c>
-      <c r="R16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="S16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="T16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="U16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="V16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="W16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="X16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>851530.0286030577</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>849033.5586285117</v>
+        <v>803329.2626155276</v>
       </c>
     </row>
   </sheetData>
